--- a/TestSuits.xlsx
+++ b/TestSuits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18502B-38F0-445E-87C0-171655174A6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E184139F-B03F-4973-BA36-50BD7BC19053}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="6" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary values" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="State transition" sheetId="4" r:id="rId4"/>
     <sheet name="Pairwise" sheetId="11" r:id="rId5"/>
     <sheet name="Pairwise Results" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -1272,6 +1273,27 @@
   </si>
   <si>
     <t>ноль</t>
+  </si>
+  <si>
+    <t>первое число введено</t>
+  </si>
+  <si>
+    <t>Операция выбрана</t>
+  </si>
+  <si>
+    <t>Второе число введено</t>
+  </si>
+  <si>
+    <t>равно нажато</t>
+  </si>
+  <si>
+    <t>расчет произведен</t>
+  </si>
+  <si>
+    <t>расчет не произведен</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1496,17 +1518,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8A791C-7713-4250-B820-EE09A465C3FA}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1970,9 +1997,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -1980,9 +2007,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -1990,9 +2017,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -2000,9 +2027,9 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -2010,9 +2037,9 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -2020,9 +2047,9 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -2030,9 +2057,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -2040,9 +2067,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -2050,9 +2077,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -2060,9 +2087,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -2070,9 +2097,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -2088,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016EE987-2666-4637-99E5-58D62C88A5E8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2427,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,27 +2755,27 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -3659,8 +3686,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
@@ -4948,4 +4975,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAE98C6-0543-47FC-A35E-603374057332}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="7"/>
+    <col min="9" max="17" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestSuits.xlsx
+++ b/TestSuits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E184139F-B03F-4973-BA36-50BD7BC19053}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595578EA-CB0B-4057-B536-473F8D72AFDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="6" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="2" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary values" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="State transition" sheetId="4" r:id="rId4"/>
     <sheet name="Pairwise" sheetId="11" r:id="rId5"/>
     <sheet name="Pairwise Results" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -1234,45 +1233,6 @@
 3.Clear button is entered
 4."0" is displayed
 </t>
-  </si>
-  <si>
-    <t>Однозначные числа</t>
-  </si>
-  <si>
-    <t>Сущность</t>
-  </si>
-  <si>
-    <t>Числа &gt;=10</t>
-  </si>
-  <si>
-    <t>дробные</t>
-  </si>
-  <si>
-    <t>отрицательные</t>
-  </si>
-  <si>
-    <t>Действия</t>
-  </si>
-  <si>
-    <t>"+"</t>
-  </si>
-  <si>
-    <t>"-"</t>
-  </si>
-  <si>
-    <t>"*"</t>
-  </si>
-  <si>
-    <t>"/"</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>ноль</t>
   </si>
   <si>
     <t>первое число введено</t>
@@ -1340,7 +1300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1380,32 +1340,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1430,9 +1364,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1504,36 +1437,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,254 +1772,254 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="15" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="19"/>
-    <col min="7" max="7" width="15.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="14" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="18"/>
+    <col min="7" max="7" width="15.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,7 +2037,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" customWidth="1"/>
@@ -2129,293 +2045,293 @@
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2424,606 +2340,177 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4E8FA5-BB5A-4847-9718-73005163B850}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="6"/>
+    <col min="9" max="17" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="B6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="D7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A7:S7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3041,8 +2528,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -3050,159 +2537,159 @@
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3221,7 +2708,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" customWidth="1"/>
@@ -3230,444 +2717,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3686,8 +3173,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
@@ -3697,25 +3184,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -3727,12 +3214,12 @@
       <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -3744,12 +3231,12 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -3761,12 +3248,12 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -3778,12 +3265,12 @@
       <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -3795,12 +3282,12 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -3812,12 +3299,12 @@
       <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -3829,12 +3316,12 @@
       <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -3846,12 +3333,12 @@
       <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -3863,12 +3350,12 @@
       <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -3880,12 +3367,12 @@
       <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" t="s">
@@ -3897,12 +3384,12 @@
       <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -3914,12 +3401,12 @@
       <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -3931,12 +3418,12 @@
       <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -3948,12 +3435,12 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" t="s">
@@ -3965,12 +3452,12 @@
       <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -3982,7 +3469,7 @@
       <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>3</v>
       </c>
     </row>
@@ -4975,183 +4462,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAE98C6-0543-47FC-A35E-603374057332}">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="7"/>
-    <col min="9" max="17" width="9.140625" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/TestSuits.xlsx
+++ b/TestSuits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595578EA-CB0B-4057-B536-473F8D72AFDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B07CCB1-069B-44E6-A206-4ABBBFB5F8FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="2" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="3" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary values" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -1018,41 +1018,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.Calculator is opened
-2.Number is entered
-3.Only one "," sign is accepted
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.Open calculator
-2.Enter any number
-3.Press the "," more then one time
-4.Check if only one "," is displayed</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1108,9 +1073,6 @@
 2.Input more then 9 negative numbers
 3.Check the results</t>
     </r>
-  </si>
-  <si>
-    <t>Check if user can`t add more then one "," sign</t>
   </si>
   <si>
     <t>Check if user can`t add more then one "0" in the start</t>
@@ -1235,32 +1197,38 @@
 </t>
   </si>
   <si>
-    <t>первое число введено</t>
-  </si>
-  <si>
-    <t>Операция выбрана</t>
-  </si>
-  <si>
-    <t>Второе число введено</t>
-  </si>
-  <si>
-    <t>равно нажато</t>
-  </si>
-  <si>
-    <t>расчет произведен</t>
-  </si>
-  <si>
-    <t>расчет не произведен</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>The first number is entered</t>
+  </si>
+  <si>
+    <t>The operation is selected</t>
+  </si>
+  <si>
+    <t>The second number is entered</t>
+  </si>
+  <si>
+    <t>"=" is pressed</t>
+  </si>
+  <si>
+    <t>Calculation is made</t>
+  </si>
+  <si>
+    <t>Check if user can`t input a negative number higher the allowed value after "," sign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,8 +1253,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,8 +1274,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1338,33 +1318,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1447,11 +1419,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1465,6 +1443,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541943</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>313881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D9B4F5-F456-41E6-99EA-C49CAED0C91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="190500"/>
+          <a:ext cx="7857143" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1764,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8A791C-7713-4250-B820-EE09A465C3FA}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,16 +1836,16 @@
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -1835,16 +1862,16 @@
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -1861,16 +1888,16 @@
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -1885,31 +1912,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
       <c r="B5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>15</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
@@ -2010,16 +2023,6 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2340,178 +2343,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4E8FA5-BB5A-4847-9718-73005163B850}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="9.140625" style="6"/>
     <col min="9" max="17" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>136</v>
-      </c>
+    <row r="1" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="33">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33">
+        <v>8</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="H2" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="B5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="A6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="F7" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2521,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6FDD5-54A2-4759-84BF-AB2CB7A9FC46}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,13 +2626,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -2594,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -2620,13 +2678,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -2646,13 +2704,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -2672,13 +2730,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -2695,6 +2753,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestSuits.xlsx
+++ b/TestSuits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B07CCB1-069B-44E6-A206-4ABBBFB5F8FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C4A77D-3BD3-4102-9293-03364541C174}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="3" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="1" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary values" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -1221,14 +1221,356 @@
     <t>Calculation is made</t>
   </si>
   <si>
-    <t>Check if user can`t input a negative number higher the allowed value after "," sign</t>
+    <t>Check if user can make a calculation with positive flow</t>
+  </si>
+  <si>
+    <t>Check if user can make a calculation without entering the first number</t>
+  </si>
+  <si>
+    <t>Check if user can make a calculation without selecting an operation and entering the second number</t>
+  </si>
+  <si>
+    <t>Check if user can make a calculation without selecting an operation and pressing "="</t>
+  </si>
+  <si>
+    <t>Check if user can make a calculation without selecting the first number and pressing "="</t>
+  </si>
+  <si>
+    <t>Check if user can make a calculation without entering the second number</t>
+  </si>
+  <si>
+    <t>Check if user can make a calculation without entering the second number and pressing "="</t>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."5" is entered
+3."*" is selected
+4."8" is entered
+5.Calculation is not made and "8" is diplayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Enter "5"
+3.Select "*" 
+4.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Enter "5"
+3.Select "*" 
+4.Input "8"
+5.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Enter "5"
+3.Select "*" 
+4.Enter "8"
+5.Press "="
+6.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user can make a calculation without "=" </t>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."5" is entered
+3."*" is selected
+4.Calculation is not made and "5" is displayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Select "*" 
+3.Enter "8"
+4.Press "="
+5.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."5" is entered
+3."=" is pressed
+4.Calculation is not made and "5" is displayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Input "5"
+3.Input "8"
+4.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."5" is entered
+3."8" is entered
+4.Calculation is not made and "58" is displayed</t>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."*" is selected
+3."8" is entered
+4.Calculation is not made and "8" is displayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Enter "5"
+3.Select "*" 
+4.Press "="
+5.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Select "*" 
+3.Enter "8"
+4.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Run calculator
+2.Enter "5"
+3.Press "="
+4.Check the result</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."5" is entered
+3."*" is selected
+4.Calculation is made and "25" is displayed</t>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."5" is entered
+3."*" is selected
+4."8" is entered
+5."=" is pressed
+6.Calculation is made and "40" is displayed</t>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2."*" is selected
+3."8" is pressed
+4.Calculation is made and "0" is displayed</t>
+  </si>
+  <si>
+    <t>Check if user can`t input a more then 8 numbers after ","</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Calculator is opened
+2."0" is entered 
+3."," is entered
+4.Only 8 numbers are displayed
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Open calculator
+2.Enter "0" 
+3.Enter ","
+4.Enter more then 8 numbers
+5.Check the results
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1600,15 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1336,7 +1687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1365,7 +1716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1418,14 +1768,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1794,18 +2162,18 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="42.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="14" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="18"/>
-    <col min="7" max="7" width="15.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="13" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="15.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1815,10 +2183,10 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1827,202 +2195,216 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>5</v>
+      </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+        <v>159</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2034,13 +2416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016EE987-2666-4637-99E5-58D62C88A5E8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" customWidth="1"/>
@@ -2049,10 +2431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2075,266 +2457,266 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2343,185 +2725,320 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4E8FA5-BB5A-4847-9718-73005163B850}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="6"/>
-    <col min="9" max="17" width="9.140625" style="28"/>
+    <col min="1" max="1" width="2.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="13" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="33">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33">
+      <c r="K1" s="30">
+        <v>1</v>
+      </c>
+      <c r="L1" s="30">
         <v>2</v>
       </c>
-      <c r="D1" s="33">
+      <c r="M1" s="30">
         <v>3</v>
       </c>
-      <c r="E1" s="33">
+      <c r="N1" s="30">
         <v>4</v>
       </c>
-      <c r="F1" s="33">
+      <c r="O1" s="30">
         <v>5</v>
       </c>
-      <c r="G1" s="33">
+      <c r="P1" s="30">
         <v>6</v>
       </c>
-      <c r="H1" s="33">
+      <c r="Q1" s="30">
         <v>7</v>
       </c>
-      <c r="I1" s="33">
+      <c r="R1" s="30">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -2529,47 +3046,117 @@
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="R6" s="29"/>
+    </row>
+    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:I1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2579,15 +3166,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6FDD5-54A2-4759-84BF-AB2CB7A9FC46}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -2602,7 +3189,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2622,132 +3209,132 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2779,7 +3366,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2805,25 +3392,25 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2831,25 +3418,25 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2857,25 +3444,25 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2883,25 +3470,25 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2909,25 +3496,25 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2935,25 +3522,25 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2961,25 +3548,25 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2987,25 +3574,25 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3013,25 +3600,25 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3039,25 +3626,25 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3065,25 +3652,25 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3091,25 +3678,25 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3117,25 +3704,25 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3143,25 +3730,25 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3169,25 +3756,25 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3195,25 +3782,25 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>15</v>
       </c>
     </row>

--- a/TestSuits.xlsx
+++ b/TestSuits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C4A77D-3BD3-4102-9293-03364541C174}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C7129-FB22-4876-AB2F-B22C490F3F11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="1" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="695" activeTab="3" xr2:uid="{0ECC5D6C-489F-4ED3-A92D-4F8F5E5BD0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary values" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -1116,16 +1116,10 @@
     <t>Check if calculator accepts valid numbers</t>
   </si>
   <si>
-    <t>Check if calculator perfom selected operation</t>
-  </si>
-  <si>
     <t>Check if calculator accepts valid numbers after selecting the operation</t>
   </si>
   <si>
     <t>Check if calculator perfoms the arethmetic operation correctly</t>
-  </si>
-  <si>
-    <t>Check if the calculator erases the entered information</t>
   </si>
   <si>
     <t>Steps:
@@ -1145,11 +1139,6 @@
 2.Valid number is entered
 3.Operation is selected
 4.Selected operation is highlighted</t>
-  </si>
-  <si>
-    <t>1.Calculator is opened
-2.Entered valid number is entered
-3.Entered number is displayed</t>
   </si>
   <si>
     <t>1.Calculator is opened
@@ -1564,6 +1553,80 @@
 5.Check the results
 </t>
     </r>
+  </si>
+  <si>
+    <t>1.Calculator is opened
+2.Valid number is entered
+3.Entered number is displayed</t>
+  </si>
+  <si>
+    <t>Check if calculator selects operation</t>
+  </si>
+  <si>
+    <t>Check if "Clear" button erases the entered number</t>
+  </si>
+  <si>
+    <t>Steps:
+1.Open calculator
+2.Enter any number
+3.Select any operation
+4.Press clear button
+5.Check the result</t>
+  </si>
+  <si>
+    <t>Steps:
+1.Open calculator
+2.Enter any number
+3.Select any operation
+4.Enter any number
+5.Press clear button
+6.Check the result</t>
+  </si>
+  <si>
+    <t>Steps:
+1.Open calculator
+2.Enter any number
+3.Select any operation
+4.Enter any number
+5.Press "="
+6.Press clear button
+7.Check the result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Calculator is opened
+2.Number is entered
+3.Operation is selected
+4.Clear button is pressed
+5."0" is displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Calculator is opened
+2.Number is entered
+3.Operation is selected
+4.Number is entered
+5.Clear button is pressed
+5."0" is displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Calculator is opened
+2.Number is entered
+3.Operation is selected
+4.Number is entered
+5."=" is pressed
+6.Clear button is pressed
+7."0" is displayed
+</t>
+  </si>
+  <si>
+    <t>Check if "Clear" button erases after entering the first valid number and selecting operation</t>
+  </si>
+  <si>
+    <t>Check if "Clear" button erases after entering first valid number, selecting operation and entering the second number</t>
+  </si>
+  <si>
+    <t>Check if "Clear" button erases after performing the arethmetic operation</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1836,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1795,6 +1854,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -1826,7 +1889,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>541943</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>313881</xdr:rowOff>
+      <xdr:rowOff>504381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2285,13 +2348,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -2416,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016EE987-2666-4637-99E5-58D62C88A5E8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -2727,21 +2790,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4E8FA5-BB5A-4847-9718-73005163B850}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="13" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="6"/>
     <col min="7" max="7" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="38" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="9.140625" style="27"/>
   </cols>
   <sheetData>
@@ -2752,7 +2815,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2770,9 +2833,9 @@
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="36" t="s">
-        <v>129</v>
+      <c r="I1" s="37"/>
+      <c r="J1" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="K1" s="30">
         <v>1</v>
@@ -2804,13 +2867,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>18</v>
@@ -2824,32 +2887,32 @@
       <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>130</v>
+      <c r="J2" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -2857,13 +2920,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>18</v>
@@ -2877,32 +2940,32 @@
       <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>131</v>
+      <c r="J3" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -2910,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>18</v>
@@ -2930,32 +2993,32 @@
       <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>132</v>
+      <c r="J4" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -2963,13 +3026,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -2983,32 +3046,32 @@
       <c r="H5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
-        <v>133</v>
+      <c r="J5" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3016,13 +3079,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>155</v>
+        <v>134</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>18</v>
@@ -3036,7 +3099,7 @@
       <c r="H6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="K6" s="29"/>
@@ -3053,13 +3116,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
@@ -3073,32 +3136,32 @@
       <c r="H7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>134</v>
+      <c r="J7" s="35" t="s">
+        <v>131</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -3106,13 +3169,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>154</v>
+        <v>136</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>151</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>18</v>
@@ -3132,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>18</v>
@@ -3164,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6FDD5-54A2-4759-84BF-AB2CB7A9FC46}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3216,10 +3279,10 @@
         <v>112</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>18</v>
@@ -3239,13 +3302,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>18</v>
@@ -3265,13 +3328,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>18</v>
@@ -3291,13 +3354,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -3317,13 +3380,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>18</v>
@@ -3335,6 +3398,84 @@
         <v>14</v>
       </c>
       <c r="H6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
